--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D425F8C-FCC3-43AE-82C8-D813A103B219}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBDF98-5700-4DC9-8FEF-3772BE60AED6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="1" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
+    <sheet name="15102018-21102018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -66,6 +67,55 @@
   </si>
   <si>
     <t>Báo cáo proposal</t>
+  </si>
+  <si>
+    <t>Có một số thành viên chưa nắm
+rõ UML nên lúc làm có hơi 
+khó khăn và sai sót</t>
+  </si>
+  <si>
+    <t>Design database,
+class diagram</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Restaurant detail (contain info, event, comment)</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Dish detail (info, comment - having comment form)</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Manage account, contain screens: show profile, update profile for customer and restaurant, change password</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Manage menu, having screens: show menu, add dish, update dish, delete dish (design popup menu for item)</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Manage event, having screens: show event list, add event, update event, delete event (design popup menu for item)</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Manage mark, contain screens: show marks, delete mark</t>
+  </si>
+  <si>
+    <t>Báo cáo Yêu cầu phần mềm</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Trang chủ
+- Main menu (menu left), contain menu of user</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Login and Register form</t>
+  </si>
+  <si>
+    <t>Design giao diện:
+- Restaurant list (total list, marklist, recent list)</t>
   </si>
 </sst>
 </file>
@@ -100,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -403,11 +453,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -467,6 +574,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9D8856-EC2C-4468-BD3C-27B3C8787CE6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -903,7 +1057,7 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>4</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -924,4 +1078,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7901F3E1-A8B7-4A59-8AA7-5E8BE787A875}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="10">
+        <v>3</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="10">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="10">
+        <v>7</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="10">
+        <v>8</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="10">
+        <v>9</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="10">
+        <v>10</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="10">
+        <v>11</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="42">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DBDF98-5700-4DC9-8FEF-3772BE60AED6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B461CF-501B-47EF-BA52-A82F633C12B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="1" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="2" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
     <sheet name="15102018-21102018" sheetId="2" r:id="rId2"/>
+    <sheet name="22102018-28102018" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -116,6 +117,24 @@
   <si>
     <t>Design giao diện:
 - Restaurant list (total list, marklist, recent list)</t>
+  </si>
+  <si>
+    <t>Báo cáo yêu cầu phần mềm</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng home page</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng main menu</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng dish detail</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng restaurant list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng chức năng restaurant detail </t>
   </si>
 </sst>
 </file>
@@ -130,7 +149,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +168,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -510,11 +535,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -545,50 +726,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +762,86 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9D8856-EC2C-4468-BD3C-27B3C8787CE6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:D15"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +1176,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -968,7 +1190,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -980,33 +1202,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1020,7 +1242,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="15">
         <v>1</v>
       </c>
@@ -1032,7 +1254,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="15">
         <v>2</v>
       </c>
@@ -1044,7 +1266,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="15">
         <v>3</v>
       </c>
@@ -1056,7 +1278,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="11">
         <v>4</v>
       </c>
@@ -1084,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7901F3E1-A8B7-4A59-8AA7-5E8BE787A875}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1100,8 +1322,8 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>7</v>
+      <c r="A2" s="33" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -1114,92 +1336,92 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="15">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="15">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="26">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1213,134 +1435,134 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="10">
         <v>6</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10">
         <v>7</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="10">
         <v>8</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="10">
         <v>9</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="10">
         <v>10</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="28">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="10">
         <v>11</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="29">
         <v>100</v>
       </c>
     </row>
@@ -1354,4 +1576,310 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31647020-419D-439C-B043-F5C45F281E94}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="27">
+        <v>100</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="10">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="10">
+        <v>9</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="10">
+        <v>10</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="11">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="44">
+        <v>1</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="15">
+        <v>4</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="15">
+        <v>5</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="15">
+        <v>6</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="15">
+        <v>7</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="11">
+        <v>8</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="26">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A6:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B461CF-501B-47EF-BA52-A82F633C12B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4E2F7-80B0-4415-93B5-B2EE3C900104}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="2" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
@@ -764,45 +764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,26 +784,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,7 +1176,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1202,33 +1202,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="15">
         <v>1</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="15">
         <v>2</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="15">
         <v>3</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="11">
         <v>4</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="15">
         <v>2</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -1398,30 +1398,30 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10">
         <v>1</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="10">
         <v>2</v>
       </c>
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="10">
         <v>3</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="10">
         <v>4</v>
       </c>
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="10">
         <v>5</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10">
         <v>6</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="10">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="10">
         <v>9</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="10">
         <v>10</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="10">
         <v>11</v>
       </c>
@@ -1582,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31647020-419D-439C-B043-F5C45F281E94}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1599,34 +1599,34 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="55">
+      <c r="A7" s="42"/>
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="40">
         <v>0</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -1662,8 +1662,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -1674,8 +1674,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10">
         <v>7</v>
       </c>
@@ -1698,8 +1698,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="99" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="10">
         <v>8</v>
       </c>
@@ -1710,8 +1710,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="99" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="10">
         <v>9</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10">
         <v>10</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="11">
         <v>11</v>
       </c>
@@ -1743,57 +1743,57 @@
         <v>19</v>
       </c>
       <c r="D17" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="54"/>
+      <c r="D20" s="55"/>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="44">
+      <c r="A25" s="45"/>
+      <c r="B25" s="31">
         <v>1</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="33">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="15">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="15">
         <v>4</v>
       </c>
@@ -1829,11 +1829,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="15">
         <v>5</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="25">
@@ -1841,11 +1841,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="15">
         <v>6</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="25">
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="15">
         <v>7</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="11">
         <v>8</v>
       </c>

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4E2F7-80B0-4415-93B5-B2EE3C900104}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2EA7A-AF82-46BF-84DF-BF5D81B2F995}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="2" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">Xây dựng chức năng restaurant detail </t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng login</t>
   </si>
 </sst>
 </file>
@@ -1582,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31647020-419D-439C-B043-F5C45F281E94}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1860,9 @@
       <c r="B31" s="15">
         <v>7</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" s="25">
         <v>100</v>
       </c>

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2EA7A-AF82-46BF-84DF-BF5D81B2F995}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB543F8-7BA2-4203-B89E-B86DF5ED41FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="2" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="3" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
     <sheet name="15102018-21102018" sheetId="2" r:id="rId2"/>
     <sheet name="22102018-28102018" sheetId="3" r:id="rId3"/>
+    <sheet name="29102018-04112018" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -698,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -846,6 +847,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31647020-419D-439C-B043-F5C45F281E94}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1887,4 +1891,262 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB1D26B-F5BF-45FA-9FE5-2C3794B51990}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="38">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="40">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="31">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="15">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="15">
+        <v>6</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="15">
+        <v>7</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="11">
+        <v>8</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB543F8-7BA2-4203-B89E-B86DF5ED41FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B5676-D2A0-4E64-AB3A-E05884D734BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" activeTab="3" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="1" activeTab="4" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
     <sheet name="15102018-21102018" sheetId="2" r:id="rId2"/>
     <sheet name="22102018-28102018" sheetId="3" r:id="rId3"/>
     <sheet name="29102018-04112018" sheetId="4" r:id="rId4"/>
+    <sheet name="05112018-11112018" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -797,6 +798,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,9 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1184,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1197,7 +1198,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1209,33 +1210,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1249,7 +1250,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="15">
         <v>1</v>
       </c>
@@ -1261,7 +1262,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="15">
         <v>2</v>
       </c>
@@ -1273,7 +1274,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="15">
         <v>3</v>
       </c>
@@ -1285,7 +1286,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="11">
         <v>4</v>
       </c>
@@ -1329,7 +1330,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1343,7 +1344,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -1355,7 +1356,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="15">
         <v>2</v>
       </c>
@@ -1367,7 +1368,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -1379,7 +1380,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -1405,30 +1406,30 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1442,7 +1443,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="10">
         <v>1</v>
       </c>
@@ -1454,7 +1455,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="10">
         <v>2</v>
       </c>
@@ -1466,7 +1467,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="10">
         <v>3</v>
       </c>
@@ -1478,7 +1479,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="10">
         <v>4</v>
       </c>
@@ -1490,7 +1491,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="10">
         <v>5</v>
       </c>
@@ -1502,7 +1503,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="10">
         <v>6</v>
       </c>
@@ -1514,7 +1515,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="10">
         <v>7</v>
       </c>
@@ -1526,7 +1527,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="10">
         <v>8</v>
       </c>
@@ -1538,7 +1539,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="10">
         <v>9</v>
       </c>
@@ -1550,7 +1551,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="10">
         <v>10</v>
       </c>
@@ -1562,7 +1563,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="10">
         <v>11</v>
       </c>
@@ -1606,7 +1607,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -1620,7 +1621,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -1633,7 +1634,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1646,7 +1647,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -1658,7 +1659,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -1670,7 +1671,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -1682,7 +1683,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -1694,7 +1695,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="10">
         <v>7</v>
       </c>
@@ -1706,7 +1707,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="10">
         <v>8</v>
       </c>
@@ -1718,7 +1719,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="10">
         <v>9</v>
       </c>
@@ -1730,7 +1731,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="10">
         <v>10</v>
       </c>
@@ -1742,7 +1743,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="11">
         <v>11</v>
       </c>
@@ -1755,26 +1756,26 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="34" t="s">
@@ -1788,7 +1789,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="31">
         <v>1</v>
       </c>
@@ -1800,7 +1801,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
@@ -1812,7 +1813,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="15">
         <v>3</v>
       </c>
@@ -1824,7 +1825,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="15">
         <v>4</v>
       </c>
@@ -1836,7 +1837,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="15">
         <v>5</v>
       </c>
@@ -1848,7 +1849,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="15">
         <v>6</v>
       </c>
@@ -1860,7 +1861,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="15">
         <v>7</v>
       </c>
@@ -1872,7 +1873,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="11">
         <v>8</v>
       </c>
@@ -1897,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB1D26B-F5BF-45FA-9FE5-2C3794B51990}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1914,7 +1915,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -1928,11 +1929,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="40">
@@ -1941,7 +1942,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -1966,7 +1967,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -1978,11 +1979,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="28">
@@ -1990,11 +1991,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="28">
@@ -2002,7 +2003,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -2015,26 +2016,26 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -2048,7 +2049,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="31">
         <v>1</v>
       </c>
@@ -2060,7 +2061,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="15">
         <v>2</v>
       </c>
@@ -2072,7 +2073,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="15">
         <v>3</v>
       </c>
@@ -2084,7 +2085,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="15">
         <v>4</v>
       </c>
@@ -2096,7 +2097,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="15">
         <v>5</v>
       </c>
@@ -2108,7 +2109,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="15">
         <v>6</v>
       </c>
@@ -2120,7 +2121,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="15">
         <v>7</v>
       </c>
@@ -2132,7 +2133,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="11">
         <v>8</v>
       </c>
@@ -2149,4 +2150,250 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA49CA2-ED1F-46CF-85AC-8F56596B8A8F}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="38">
+        <v>1</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="40">
+        <v>100</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="15">
+        <v>4</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="15">
+        <v>6</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="15">
+        <v>7</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:A27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B5676-D2A0-4E64-AB3A-E05884D734BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB39E9A-D387-4D8D-8FC6-2B3F770DAA51}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="1" activeTab="4" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="2" activeTab="5" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="22102018-28102018" sheetId="3" r:id="rId3"/>
     <sheet name="29102018-04112018" sheetId="4" r:id="rId4"/>
     <sheet name="05112018-11112018" sheetId="5" r:id="rId5"/>
+    <sheet name="12112018-18112018" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -140,6 +141,15 @@
   </si>
   <si>
     <t>Xây dựng chức năng login</t>
+  </si>
+  <si>
+    <t>Lần đầu tiếp xúc mobile nên code có khó khăn, mất nhiều thời gian tìm hiểu</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng Register</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng page manage menu</t>
   </si>
 </sst>
 </file>
@@ -180,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -696,11 +706,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -851,6 +885,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2156,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA49CA2-ED1F-46CF-85AC-8F56596B8A8F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2396,4 +2440,265 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBA224-0C4D-4A1A-9FF4-E119D2DE3518}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="27">
+        <v>70</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="11">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="16" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="37">
+        <v>1</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="15">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="15">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="15">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="15">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="15">
+        <v>7</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="62">
+        <v>8</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="61">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB39E9A-D387-4D8D-8FC6-2B3F770DAA51}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9685F9-F634-4B3F-B501-681D343FB881}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="2" activeTab="5" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="3" activeTab="5" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="29102018-04112018" sheetId="4" r:id="rId4"/>
     <sheet name="05112018-11112018" sheetId="5" r:id="rId5"/>
     <sheet name="12112018-18112018" sheetId="6" r:id="rId6"/>
+    <sheet name="19112018-25112018" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -150,6 +151,12 @@
   </si>
   <si>
     <t>Xây dựng chức năng page manage menu</t>
+  </si>
+  <si>
+    <t>Báo cáo lý thuyết</t>
+  </si>
+  <si>
+    <t>Báo cáo lý thuyết: System Design</t>
   </si>
 </sst>
 </file>
@@ -190,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -730,11 +737,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -835,57 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,6 +863,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1251,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1242,7 +1265,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1254,33 +1277,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1294,7 +1317,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="15">
         <v>1</v>
       </c>
@@ -1306,7 +1329,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="15">
         <v>2</v>
       </c>
@@ -1318,7 +1341,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="15">
         <v>3</v>
       </c>
@@ -1330,7 +1353,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11">
         <v>4</v>
       </c>
@@ -1374,7 +1397,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1388,7 +1411,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -1400,7 +1423,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="15">
         <v>2</v>
       </c>
@@ -1412,7 +1435,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -1424,7 +1447,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -1450,30 +1473,30 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="49"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1487,7 +1510,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="10">
         <v>1</v>
       </c>
@@ -1499,7 +1522,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="10">
         <v>2</v>
       </c>
@@ -1511,7 +1534,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="10">
         <v>3</v>
       </c>
@@ -1523,7 +1546,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="10">
         <v>4</v>
       </c>
@@ -1535,7 +1558,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="10">
         <v>5</v>
       </c>
@@ -1547,7 +1570,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="10">
         <v>6</v>
       </c>
@@ -1559,7 +1582,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="10">
         <v>7</v>
       </c>
@@ -1571,7 +1594,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="10">
         <v>8</v>
       </c>
@@ -1583,7 +1606,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="10">
         <v>9</v>
       </c>
@@ -1595,7 +1618,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="10">
         <v>10</v>
       </c>
@@ -1607,7 +1630,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="10">
         <v>11</v>
       </c>
@@ -1651,7 +1674,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -1665,7 +1688,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -1678,7 +1701,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1691,7 +1714,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -1703,7 +1726,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -1715,7 +1738,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -1727,7 +1750,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -1739,7 +1762,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="10">
         <v>7</v>
       </c>
@@ -1751,7 +1774,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="10">
         <v>8</v>
       </c>
@@ -1763,7 +1786,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="10">
         <v>9</v>
       </c>
@@ -1775,7 +1798,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="10">
         <v>10</v>
       </c>
@@ -1787,7 +1810,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="11">
         <v>11</v>
       </c>
@@ -1800,26 +1823,26 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="34" t="s">
@@ -1833,7 +1856,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="31">
         <v>1</v>
       </c>
@@ -1845,7 +1868,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
@@ -1857,7 +1880,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="15">
         <v>3</v>
       </c>
@@ -1869,7 +1892,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="15">
         <v>4</v>
       </c>
@@ -1881,7 +1904,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="15">
         <v>5</v>
       </c>
@@ -1893,7 +1916,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="15">
         <v>6</v>
       </c>
@@ -1905,7 +1928,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="15">
         <v>7</v>
       </c>
@@ -1917,7 +1940,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="11">
         <v>8</v>
       </c>
@@ -1959,7 +1982,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -1973,7 +1996,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -1986,7 +2009,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1999,7 +2022,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2011,7 +2034,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -2023,7 +2046,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -2035,7 +2058,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -2047,7 +2070,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -2060,26 +2083,26 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -2093,7 +2116,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="31">
         <v>1</v>
       </c>
@@ -2105,7 +2128,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="15">
         <v>2</v>
       </c>
@@ -2117,7 +2140,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="15">
         <v>3</v>
       </c>
@@ -2129,7 +2152,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="15">
         <v>4</v>
       </c>
@@ -2141,7 +2164,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="15">
         <v>5</v>
       </c>
@@ -2153,7 +2176,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="15">
         <v>6</v>
       </c>
@@ -2165,7 +2188,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="15">
         <v>7</v>
       </c>
@@ -2177,7 +2200,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="11">
         <v>8</v>
       </c>
@@ -2200,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA49CA2-ED1F-46CF-85AC-8F56596B8A8F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2217,7 +2240,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2231,7 +2254,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -2244,7 +2267,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -2257,7 +2280,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2269,7 +2292,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -2281,7 +2304,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -2293,7 +2316,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -2305,7 +2328,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -2318,26 +2341,26 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -2351,7 +2374,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="15">
         <v>1</v>
       </c>
@@ -2363,7 +2386,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="15">
         <v>2</v>
       </c>
@@ -2375,7 +2398,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="15">
         <v>3</v>
       </c>
@@ -2387,7 +2410,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="15">
         <v>4</v>
       </c>
@@ -2399,7 +2422,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="15">
         <v>5</v>
       </c>
@@ -2411,7 +2434,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="15">
         <v>6</v>
       </c>
@@ -2423,7 +2446,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="15">
         <v>7</v>
       </c>
@@ -2444,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBA224-0C4D-4A1A-9FF4-E119D2DE3518}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2486,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2477,7 +2500,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="10">
         <v>2</v>
       </c>
@@ -2490,7 +2513,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="10">
         <v>3</v>
       </c>
@@ -2502,7 +2525,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="10">
         <v>4</v>
       </c>
@@ -2514,7 +2537,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="10">
         <v>5</v>
       </c>
@@ -2526,7 +2549,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10">
         <v>6</v>
       </c>
@@ -2538,7 +2561,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="11">
         <v>7</v>
       </c>
@@ -2551,30 +2574,30 @@
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="56"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="37">
         <v>1</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -2588,7 +2611,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="15">
         <v>1</v>
       </c>
@@ -2600,7 +2623,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="15">
         <v>2</v>
       </c>
@@ -2612,7 +2635,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="15">
         <v>3</v>
       </c>
@@ -2624,7 +2647,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="15">
         <v>4</v>
       </c>
@@ -2636,7 +2659,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="15">
         <v>5</v>
       </c>
@@ -2648,7 +2671,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="15">
         <v>6</v>
       </c>
@@ -2660,36 +2683,48 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="15">
         <v>7</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="43">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62">
+      <c r="A27" s="58"/>
+      <c r="B27" s="45">
         <v>8</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="45">
+        <v>9</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="61">
-        <v>9</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="51"/>
+      <c r="B29" s="44">
+        <v>10</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2697,7 +2732,288 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A19:A29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880FC5EF-79C9-4EFE-8D00-19A0FF06704F}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="27">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="63">
+        <v>7</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="15">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="B27" s="15">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="15">
+        <v>7</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="B29" s="15">
+        <v>8</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="44">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9685F9-F634-4B3F-B501-681D343FB881}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D33AE-7C63-41F2-A13E-394BD7B105CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="3" activeTab="5" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="4" activeTab="7" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="05112018-11112018" sheetId="5" r:id="rId5"/>
     <sheet name="12112018-18112018" sheetId="6" r:id="rId6"/>
     <sheet name="19112018-25112018" sheetId="7" r:id="rId7"/>
+    <sheet name="26112018-02122018" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -865,6 +866,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,9 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,7 +1252,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1265,7 +1266,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1277,33 +1278,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1317,7 +1318,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="15">
         <v>1</v>
       </c>
@@ -1329,7 +1330,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15">
         <v>2</v>
       </c>
@@ -1341,7 +1342,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="15">
         <v>3</v>
       </c>
@@ -1353,7 +1354,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="11">
         <v>4</v>
       </c>
@@ -1397,7 +1398,7 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1411,7 +1412,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -1423,7 +1424,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="15">
         <v>2</v>
       </c>
@@ -1435,7 +1436,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -1447,7 +1448,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -1473,30 +1474,30 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1510,7 +1511,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="10">
         <v>1</v>
       </c>
@@ -1522,7 +1523,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="10">
         <v>2</v>
       </c>
@@ -1534,7 +1535,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="10">
         <v>3</v>
       </c>
@@ -1546,7 +1547,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="10">
         <v>4</v>
       </c>
@@ -1558,7 +1559,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="10">
         <v>5</v>
       </c>
@@ -1570,7 +1571,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="10">
         <v>6</v>
       </c>
@@ -1582,7 +1583,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="10">
         <v>7</v>
       </c>
@@ -1594,7 +1595,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="10">
         <v>8</v>
       </c>
@@ -1606,7 +1607,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="10">
         <v>9</v>
       </c>
@@ -1618,7 +1619,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="10">
         <v>10</v>
       </c>
@@ -1630,7 +1631,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="10">
         <v>11</v>
       </c>
@@ -1674,7 +1675,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -1688,7 +1689,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -1701,7 +1702,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1714,7 +1715,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -1726,7 +1727,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -1738,7 +1739,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -1750,7 +1751,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -1762,7 +1763,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="10">
         <v>7</v>
       </c>
@@ -1774,7 +1775,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10">
         <v>8</v>
       </c>
@@ -1786,7 +1787,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="10">
         <v>9</v>
       </c>
@@ -1798,7 +1799,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="10">
         <v>10</v>
       </c>
@@ -1810,7 +1811,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="11">
         <v>11</v>
       </c>
@@ -1823,26 +1824,26 @@
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="34" t="s">
@@ -1856,7 +1857,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="31">
         <v>1</v>
       </c>
@@ -1868,7 +1869,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="15">
         <v>2</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="15">
         <v>3</v>
       </c>
@@ -1892,7 +1893,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="15">
         <v>4</v>
       </c>
@@ -1904,7 +1905,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="15">
         <v>5</v>
       </c>
@@ -1916,7 +1917,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="15">
         <v>6</v>
       </c>
@@ -1928,7 +1929,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="15">
         <v>7</v>
       </c>
@@ -1940,7 +1941,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="11">
         <v>8</v>
       </c>
@@ -1982,7 +1983,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -1996,7 +1997,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -2022,7 +2023,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2034,7 +2035,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -2046,7 +2047,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -2058,7 +2059,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -2070,7 +2071,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -2083,26 +2084,26 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -2116,7 +2117,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="31">
         <v>1</v>
       </c>
@@ -2128,7 +2129,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15">
         <v>2</v>
       </c>
@@ -2140,7 +2141,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15">
         <v>3</v>
       </c>
@@ -2152,7 +2153,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="15">
         <v>4</v>
       </c>
@@ -2164,7 +2165,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="15">
         <v>5</v>
       </c>
@@ -2176,7 +2177,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="15">
         <v>6</v>
       </c>
@@ -2188,7 +2189,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="15">
         <v>7</v>
       </c>
@@ -2200,7 +2201,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="11">
         <v>8</v>
       </c>
@@ -2240,7 +2241,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2254,7 +2255,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="38">
         <v>1</v>
       </c>
@@ -2267,7 +2268,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -2280,7 +2281,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2292,7 +2293,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -2304,7 +2305,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -2316,7 +2317,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -2328,7 +2329,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="11">
         <v>7</v>
       </c>
@@ -2341,26 +2342,26 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -2374,7 +2375,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="15">
         <v>1</v>
       </c>
@@ -2386,7 +2387,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15">
         <v>2</v>
       </c>
@@ -2398,7 +2399,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15">
         <v>3</v>
       </c>
@@ -2410,7 +2411,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="15">
         <v>4</v>
       </c>
@@ -2422,7 +2423,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="15">
         <v>5</v>
       </c>
@@ -2434,7 +2435,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="15">
         <v>6</v>
       </c>
@@ -2446,7 +2447,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="15">
         <v>7</v>
       </c>
@@ -2469,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECBA224-0C4D-4A1A-9FF4-E119D2DE3518}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2486,7 +2487,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2500,7 +2501,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="10">
         <v>2</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="10">
         <v>3</v>
       </c>
@@ -2525,7 +2526,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="10">
         <v>4</v>
       </c>
@@ -2537,7 +2538,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="10">
         <v>5</v>
       </c>
@@ -2549,7 +2550,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="10">
         <v>6</v>
       </c>
@@ -2561,7 +2562,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="11">
         <v>7</v>
       </c>
@@ -2574,30 +2575,30 @@
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="61"/>
     </row>
     <row r="16" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="37">
         <v>1</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="63"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -2611,7 +2612,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="15">
         <v>1</v>
       </c>
@@ -2623,7 +2624,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="15">
         <v>2</v>
       </c>
@@ -2635,7 +2636,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15">
         <v>3</v>
       </c>
@@ -2647,7 +2648,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15">
         <v>4</v>
       </c>
@@ -2659,7 +2660,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="15">
         <v>5</v>
       </c>
@@ -2671,7 +2672,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="15">
         <v>6</v>
       </c>
@@ -2683,7 +2684,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="15">
         <v>7</v>
       </c>
@@ -2695,7 +2696,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="45">
         <v>8</v>
       </c>
@@ -2707,7 +2708,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="45">
         <v>9</v>
       </c>
@@ -2719,7 +2720,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="44">
         <v>10</v>
       </c>
@@ -2742,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880FC5EF-79C9-4EFE-8D00-19A0FF06704F}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2760,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
@@ -2773,7 +2774,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="10">
         <v>1</v>
       </c>
@@ -2786,7 +2787,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -2798,7 +2799,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -2810,7 +2811,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -2822,7 +2823,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="10">
         <v>5</v>
       </c>
@@ -2834,7 +2835,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="10">
         <v>6</v>
       </c>
@@ -2846,8 +2847,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="63">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46">
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -2858,7 +2859,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="11">
         <v>8</v>
       </c>
@@ -2871,26 +2872,26 @@
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
     </row>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -2904,7 +2905,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="15">
         <v>1</v>
       </c>
@@ -2916,7 +2917,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="15">
         <v>2</v>
       </c>
@@ -2928,7 +2929,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="15">
         <v>3</v>
       </c>
@@ -2940,7 +2941,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="15">
         <v>4</v>
       </c>
@@ -2952,7 +2953,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="15">
         <v>5</v>
       </c>
@@ -2964,7 +2965,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="15">
         <v>6</v>
       </c>
@@ -2976,7 +2977,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="15">
         <v>7</v>
       </c>
@@ -2988,7 +2989,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="15">
         <v>8</v>
       </c>
@@ -3000,7 +3001,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="44">
         <v>9</v>
       </c>
@@ -3017,4 +3018,284 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3520C999-8DC3-48FA-A32F-9D474DFB752C}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46">
+        <v>7</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="46">
+        <v>8</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="15">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="15">
+        <v>6</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="15">
+        <v>8</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
+      <c r="B30" s="44">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:A30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D33AE-7C63-41F2-A13E-394BD7B105CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B743C0E-2DF9-43B1-9AAB-57570176817C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="4" activeTab="7" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="5" activeTab="8" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="12112018-18112018" sheetId="6" r:id="rId6"/>
     <sheet name="19112018-25112018" sheetId="7" r:id="rId7"/>
     <sheet name="26112018-02122018" sheetId="8" r:id="rId8"/>
+    <sheet name="03122018-09122018" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -3024,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3520C999-8DC3-48FA-A32F-9D474DFB752C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3298,4 +3299,272 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B413DD74-2E79-47E7-9FE5-AEF6B2FFDCFB}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46">
+        <v>7</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="15">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="15">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="15">
+        <v>7</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="44">
+        <v>8</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:A29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B743C0E-2DF9-43B1-9AAB-57570176817C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9F49F-171D-49F4-90DD-F34028F8CF9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="5" activeTab="8" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="6" activeTab="9" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="19112018-25112018" sheetId="7" r:id="rId7"/>
     <sheet name="26112018-02122018" sheetId="8" r:id="rId8"/>
     <sheet name="03122018-09122018" sheetId="9" r:id="rId9"/>
+    <sheet name="10122018-16122018" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>Báo cáo lý thuyết: System Design</t>
+  </si>
+  <si>
+    <t>Báo cáo lý thuyết cuối kỳ</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng add dish</t>
   </si>
 </sst>
 </file>
@@ -1379,6 +1386,262 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110C8A3F-DCAF-409A-B179-7FA12AE42730}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46">
+        <v>7</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="15">
+        <v>4</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="15">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="44">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A21:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7901F3E1-A8B7-4A59-8AA7-5E8BE787A875}">
   <dimension ref="A1:E24"/>
@@ -3305,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B413DD74-2E79-47E7-9FE5-AEF6B2FFDCFB}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9F49F-171D-49F4-90DD-F34028F8CF9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A06C69-203E-4D5A-8529-3FCFCA0BC671}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="6" activeTab="9" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="7" activeTab="10" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="26112018-02122018" sheetId="8" r:id="rId8"/>
     <sheet name="03122018-09122018" sheetId="9" r:id="rId9"/>
     <sheet name="10122018-16122018" sheetId="10" r:id="rId10"/>
+    <sheet name="17122018-23122018" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -1390,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110C8A3F-DCAF-409A-B179-7FA12AE42730}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1637,6 +1638,238 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A21:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DFD89B-7D6A-4CA9-86E2-DA6750080B96}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="46">
+        <v>5</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="46">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="15">
+        <v>3</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="15">
+        <v>4</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="44">
+        <v>6</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3008,7 +3241,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3289,7 +3522,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3569,7 +3802,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A06C69-203E-4D5A-8529-3FCFCA0BC671}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F9AD5-C8BB-49EE-920D-8172E8A528E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="7" activeTab="10" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DFD89B-7D6A-4CA9-86E2-DA6750080B96}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1710,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="28">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="43">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F9AD5-C8BB-49EE-920D-8172E8A528E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEBDA6-80FB-476B-8529-7AEB1888F9DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="7" activeTab="10" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="8" activeTab="11" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="03122018-09122018" sheetId="9" r:id="rId9"/>
     <sheet name="10122018-16122018" sheetId="10" r:id="rId10"/>
     <sheet name="17122018-23122018" sheetId="11" r:id="rId11"/>
+    <sheet name="24122018-30122018" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -167,6 +168,9 @@
   </si>
   <si>
     <t>Xây dựng chức năng add dish</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng thông tin tài khoản và cập nhật</t>
   </si>
 </sst>
 </file>
@@ -1647,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DFD89B-7D6A-4CA9-86E2-DA6750080B96}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1870,6 +1874,206 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A20:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3549458-7C1E-48F4-8907-06D250643687}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="46">
+        <v>4</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="15">
+        <v>3</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="15">
+        <v>4</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="44">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="26">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A18:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/07_Report/Weekly Report/Weekly_Plan.xlsx
+++ b/07_Report/Weekly Report/Weekly_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\documents\NMCNPM\ISE_NTMT_01\07_Report\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEBDA6-80FB-476B-8529-7AEB1888F9DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A711A2E-3B74-4253-BCC3-CEF9057282F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="8" activeTab="11" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8100" firstSheet="9" activeTab="12" xr2:uid="{F532BE21-CC2C-4AAF-931C-FEA693C31C50}"/>
   </bookViews>
   <sheets>
     <sheet name="08102018-14102018" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="10122018-16122018" sheetId="10" r:id="rId10"/>
     <sheet name="17122018-23122018" sheetId="11" r:id="rId11"/>
     <sheet name="24122018-30122018" sheetId="12" r:id="rId12"/>
+    <sheet name="31122018-06012019" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -172,6 +173,18 @@
   <si>
     <t>Xây dựng chức năng thông tin tài khoản và cập nhật</t>
   </si>
+  <si>
+    <t>Xây dựng chức năng xóa dish trong manage menu</t>
+  </si>
+  <si>
+    <t>Xây dựng trang manage event</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng add event</t>
+  </si>
 </sst>
 </file>
 
@@ -768,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -932,6 +945,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3549458-7C1E-48F4-8907-06D250643687}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2076,6 +2096,229 @@
     <mergeCell ref="A18:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01671C2-6371-4A41-81A5-93AD585048A7}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="64">
+        <v>1</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:4" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="15">
+        <v>3</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="15">
+        <v>4</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="44">
+        <v>5</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="26">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
